--- a/results/2025-26/schBotolaD1/CalendarD1-v0/summaryPerTeam.xlsx
+++ b/results/2025-26/schBotolaD1/CalendarD1-v0/summaryPerTeam.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Calendar" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$163</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="74">
   <si>
     <t>Team</t>
   </si>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1361">
+  <cellXfs count="1297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -623,774 +623,710 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1661,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2397,28 +2333,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="217">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="218">
         <v>9</v>
       </c>
       <c r="C29" t="s" s="219">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s" s="220">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s" s="221">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s" s="222">
         <v>17</v>
       </c>
       <c r="G29" t="s" s="223">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s" s="224">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -2429,22 +2365,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s" s="227">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s" s="228">
         <v>11</v>
       </c>
       <c r="E30" t="s" s="229">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s" s="230">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s" s="231">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s" s="232">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2391,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s" s="235">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s" s="236">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s" s="237">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s" s="238">
         <v>13</v>
       </c>
       <c r="G31" t="s" s="239">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s" s="240">
         <v>58</v>
-      </c>
-      <c r="H31" t="s" s="240">
-        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -2481,22 +2417,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s" s="243">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s" s="244">
         <v>31</v>
       </c>
       <c r="E32" t="s" s="245">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s" s="246">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s" s="247">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s" s="248">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -2507,48 +2443,48 @@
         <v>9</v>
       </c>
       <c r="C33" t="s" s="251">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s" s="252">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s" s="253">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s" s="254">
         <v>17</v>
       </c>
       <c r="G33" t="s" s="255">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s" s="256">
         <v>58</v>
-      </c>
-      <c r="H33" t="s" s="256">
-        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="257">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s" s="258">
         <v>9</v>
       </c>
       <c r="C34" t="s" s="259">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s" s="260">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="261">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s" s="262">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s" s="263">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s" s="264">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -2559,22 +2495,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s" s="267">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s" s="268">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s" s="269">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s" s="270">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s" s="271">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s" s="272">
         <v>62</v>
-      </c>
-      <c r="H35" t="s" s="272">
-        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -2585,22 +2521,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s" s="275">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s" s="276">
         <v>31</v>
       </c>
       <c r="E36" t="s" s="277">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s" s="278">
         <v>13</v>
       </c>
       <c r="G36" t="s" s="279">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s" s="280">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -2611,13 +2547,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s" s="283">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s" s="284">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s" s="285">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s" s="286">
         <v>13</v>
@@ -2626,7 +2562,7 @@
         <v>62</v>
       </c>
       <c r="H37" t="s" s="288">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -2637,48 +2573,48 @@
         <v>9</v>
       </c>
       <c r="C38" t="s" s="291">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s" s="292">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s" s="293">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s" s="294">
         <v>13</v>
       </c>
       <c r="G38" t="s" s="295">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s" s="296">
         <v>62</v>
-      </c>
-      <c r="H38" t="s" s="296">
-        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="297">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s" s="298">
         <v>9</v>
       </c>
       <c r="C39" t="s" s="299">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s" s="300">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s" s="301">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="302">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s" s="303">
         <v>66</v>
       </c>
       <c r="H39" t="s" s="304">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -2689,22 +2625,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s" s="307">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s" s="308">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s" s="309">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s" s="310">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s" s="311">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s" s="312">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -2715,22 +2651,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s" s="315">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s" s="316">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s" s="317">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s" s="318">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s" s="319">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s" s="320">
         <v>57</v>
-      </c>
-      <c r="H41" t="s" s="320">
-        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -2741,22 +2677,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s" s="323">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s" s="324">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s" s="325">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s" s="326">
         <v>56</v>
       </c>
       <c r="G42" t="s" s="327">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s" s="328">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -2764,25 +2700,25 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="330">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="331">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s" s="332">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s" s="333">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s" s="334">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s" s="335">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s" s="336">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -2796,10 +2732,10 @@
         <v>27</v>
       </c>
       <c r="D44" t="s" s="340">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s" s="341">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s" s="342">
         <v>27</v>
@@ -2822,10 +2758,10 @@
         <v>27</v>
       </c>
       <c r="D45" t="s" s="348">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s" s="349">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s" s="350">
         <v>27</v>
@@ -2842,25 +2778,25 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="354">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s" s="355">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s" s="356">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s" s="357">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s" s="358">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s" s="359">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s" s="360">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
@@ -2868,25 +2804,25 @@
         <v>57</v>
       </c>
       <c r="B47" t="s" s="362">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s" s="363">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s" s="364">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s" s="365">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s" s="366">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s" s="367">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s" s="368">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -2900,10 +2836,10 @@
         <v>27</v>
       </c>
       <c r="D48" t="s" s="372">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s" s="373">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s" s="374">
         <v>27</v>
@@ -2926,10 +2862,10 @@
         <v>27</v>
       </c>
       <c r="D49" t="s" s="380">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s" s="381">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s" s="382">
         <v>27</v>
@@ -2952,10 +2888,10 @@
         <v>27</v>
       </c>
       <c r="D50" t="s" s="388">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s" s="389">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s" s="390">
         <v>27</v>
@@ -2978,10 +2914,10 @@
         <v>27</v>
       </c>
       <c r="D51" t="s" s="396">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s" s="397">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="398">
         <v>27</v>
@@ -3004,10 +2940,10 @@
         <v>27</v>
       </c>
       <c r="D52" t="s" s="404">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s" s="405">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="406">
         <v>27</v>
@@ -3030,10 +2966,10 @@
         <v>27</v>
       </c>
       <c r="D53" t="s" s="412">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s" s="413">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s" s="414">
         <v>27</v>
@@ -3056,10 +2992,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s" s="420">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s" s="421">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s" s="422">
         <v>27</v>
@@ -3082,10 +3018,10 @@
         <v>27</v>
       </c>
       <c r="D55" t="s" s="428">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s" s="429">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s" s="430">
         <v>27</v>
@@ -3108,10 +3044,10 @@
         <v>27</v>
       </c>
       <c r="D56" t="s" s="436">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s" s="437">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s" s="438">
         <v>27</v>
@@ -3134,10 +3070,10 @@
         <v>27</v>
       </c>
       <c r="D57" t="s" s="444">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s" s="445">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s" s="446">
         <v>27</v>
@@ -3160,10 +3096,10 @@
         <v>27</v>
       </c>
       <c r="D58" t="s" s="452">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s" s="453">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s" s="454">
         <v>27</v>
@@ -3186,10 +3122,10 @@
         <v>27</v>
       </c>
       <c r="D59" t="s" s="460">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s" s="461">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s" s="462">
         <v>27</v>
@@ -3212,10 +3148,10 @@
         <v>27</v>
       </c>
       <c r="D60" t="s" s="468">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s" s="469">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s" s="470">
         <v>27</v>
@@ -3238,10 +3174,10 @@
         <v>27</v>
       </c>
       <c r="D61" t="s" s="476">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s" s="477">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s" s="478">
         <v>27</v>
@@ -3255,28 +3191,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="481">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s" s="482">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s" s="483">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s" s="484">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s" s="485">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s" s="486">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s" s="487">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s" s="488">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -3287,22 +3223,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s" s="491">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s" s="492">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s" s="493">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s" s="494">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s" s="495">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s" s="496">
         <v>70</v>
-      </c>
-      <c r="H63" t="s" s="496">
-        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -3313,22 +3249,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s" s="499">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s" s="500">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s" s="501">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s" s="502">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s" s="503">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s" s="504">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -3339,22 +3275,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s" s="507">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s" s="508">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s" s="509">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s" s="510">
         <v>17</v>
       </c>
       <c r="G65" t="s" s="511">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s" s="512">
         <v>70</v>
-      </c>
-      <c r="H65" t="s" s="512">
-        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -3362,25 +3298,25 @@
         <v>70</v>
       </c>
       <c r="B66" t="s" s="514">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s" s="515">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s" s="516">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s" s="517">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s" s="518">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s" s="519">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s" s="520">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -3394,10 +3330,10 @@
         <v>27</v>
       </c>
       <c r="D67" t="s" s="524">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s" s="525">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s" s="526">
         <v>27</v>
@@ -3420,10 +3356,10 @@
         <v>27</v>
       </c>
       <c r="D68" t="s" s="532">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s" s="533">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s" s="534">
         <v>27</v>
@@ -3440,25 +3376,25 @@
         <v>70</v>
       </c>
       <c r="B69" t="s" s="538">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s" s="539">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s" s="540">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s" s="541">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s" s="542">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s" s="543">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s" s="544">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70">
@@ -3466,25 +3402,25 @@
         <v>70</v>
       </c>
       <c r="B70" t="s" s="546">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s" s="547">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s" s="548">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s" s="549">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s" s="550">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s" s="551">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s" s="552">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -3498,10 +3434,10 @@
         <v>27</v>
       </c>
       <c r="D71" t="s" s="556">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s" s="557">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s" s="558">
         <v>27</v>
@@ -3524,10 +3460,10 @@
         <v>27</v>
       </c>
       <c r="D72" t="s" s="564">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s" s="565">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s" s="566">
         <v>27</v>
@@ -3550,10 +3486,10 @@
         <v>27</v>
       </c>
       <c r="D73" t="s" s="572">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s" s="573">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s" s="574">
         <v>27</v>
@@ -3576,10 +3512,10 @@
         <v>27</v>
       </c>
       <c r="D74" t="s" s="580">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s" s="581">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="582">
         <v>27</v>
@@ -3602,10 +3538,10 @@
         <v>27</v>
       </c>
       <c r="D75" t="s" s="588">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s" s="589">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="590">
         <v>27</v>
@@ -3628,10 +3564,10 @@
         <v>27</v>
       </c>
       <c r="D76" t="s" s="596">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s" s="597">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="598">
         <v>27</v>
@@ -3654,10 +3590,10 @@
         <v>27</v>
       </c>
       <c r="D77" t="s" s="604">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s" s="605">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s" s="606">
         <v>27</v>
@@ -3680,10 +3616,10 @@
         <v>27</v>
       </c>
       <c r="D78" t="s" s="612">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s" s="613">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s" s="614">
         <v>27</v>
@@ -3706,10 +3642,10 @@
         <v>27</v>
       </c>
       <c r="D79" t="s" s="620">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s" s="621">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s" s="622">
         <v>27</v>
@@ -3732,10 +3668,10 @@
         <v>27</v>
       </c>
       <c r="D80" t="s" s="628">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s" s="629">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s" s="630">
         <v>27</v>
@@ -3758,10 +3694,10 @@
         <v>27</v>
       </c>
       <c r="D81" t="s" s="636">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s" s="637">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s" s="638">
         <v>27</v>
@@ -3784,10 +3720,10 @@
         <v>27</v>
       </c>
       <c r="D82" t="s" s="644">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s" s="645">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s" s="646">
         <v>27</v>
@@ -3810,10 +3746,10 @@
         <v>27</v>
       </c>
       <c r="D83" t="s" s="652">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s" s="653">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s" s="654">
         <v>27</v>
@@ -3836,10 +3772,10 @@
         <v>27</v>
       </c>
       <c r="D84" t="s" s="660">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s" s="661">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="662">
         <v>27</v>
@@ -3853,28 +3789,28 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="665">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s" s="666">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s" s="667">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s" s="668">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s" s="669">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s" s="670">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s" s="671">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H85" t="s" s="672">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86">
@@ -3885,22 +3821,22 @@
         <v>9</v>
       </c>
       <c r="C86" t="s" s="675">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s" s="676">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s" s="677">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F86" t="s" s="678">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s" s="679">
+        <v>36</v>
+      </c>
+      <c r="H86" t="s" s="680">
         <v>66</v>
-      </c>
-      <c r="H86" t="s" s="680">
-        <v>57</v>
       </c>
     </row>
     <row r="87">
@@ -3911,22 +3847,22 @@
         <v>9</v>
       </c>
       <c r="C87" t="s" s="683">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s" s="684">
         <v>28</v>
       </c>
       <c r="E87" t="s" s="685">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F87" t="s" s="686">
         <v>13</v>
       </c>
       <c r="G87" t="s" s="687">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s" s="688">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
@@ -3937,22 +3873,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s" s="691">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s" s="692">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s" s="693">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F88" t="s" s="694">
         <v>13</v>
       </c>
       <c r="G88" t="s" s="695">
+        <v>59</v>
+      </c>
+      <c r="H88" t="s" s="696">
         <v>66</v>
-      </c>
-      <c r="H88" t="s" s="696">
-        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -3960,25 +3896,25 @@
         <v>66</v>
       </c>
       <c r="B89" t="s" s="698">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s" s="699">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s" s="700">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s" s="701">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s" s="702">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s" s="703">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s" s="704">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -3992,10 +3928,10 @@
         <v>27</v>
       </c>
       <c r="D90" t="s" s="708">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s" s="709">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s" s="710">
         <v>27</v>
@@ -4018,10 +3954,10 @@
         <v>27</v>
       </c>
       <c r="D91" t="s" s="716">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s" s="717">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s" s="718">
         <v>27</v>
@@ -4038,25 +3974,25 @@
         <v>66</v>
       </c>
       <c r="B92" t="s" s="722">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s" s="723">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s" s="724">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E92" t="s" s="725">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s" s="726">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s" s="727">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s" s="728">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
@@ -4064,25 +4000,25 @@
         <v>66</v>
       </c>
       <c r="B93" t="s" s="730">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s" s="731">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s" s="732">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s" s="733">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s" s="734">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s" s="735">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s" s="736">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -4096,10 +4032,10 @@
         <v>27</v>
       </c>
       <c r="D94" t="s" s="740">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s" s="741">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s" s="742">
         <v>27</v>
@@ -4122,10 +4058,10 @@
         <v>27</v>
       </c>
       <c r="D95" t="s" s="748">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s" s="749">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s" s="750">
         <v>27</v>
@@ -4148,10 +4084,10 @@
         <v>27</v>
       </c>
       <c r="D96" t="s" s="756">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s" s="757">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="758">
         <v>27</v>
@@ -4174,10 +4110,10 @@
         <v>27</v>
       </c>
       <c r="D97" t="s" s="764">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s" s="765">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s" s="766">
         <v>27</v>
@@ -4200,10 +4136,10 @@
         <v>27</v>
       </c>
       <c r="D98" t="s" s="772">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s" s="773">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s" s="774">
         <v>27</v>
@@ -4226,10 +4162,10 @@
         <v>27</v>
       </c>
       <c r="D99" t="s" s="780">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E99" t="s" s="781">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s" s="782">
         <v>27</v>
@@ -4252,10 +4188,10 @@
         <v>27</v>
       </c>
       <c r="D100" t="s" s="788">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s" s="789">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s" s="790">
         <v>27</v>
@@ -4278,10 +4214,10 @@
         <v>27</v>
       </c>
       <c r="D101" t="s" s="796">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s" s="797">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s" s="798">
         <v>27</v>
@@ -4304,10 +4240,10 @@
         <v>27</v>
       </c>
       <c r="D102" t="s" s="804">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s" s="805">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s" s="806">
         <v>27</v>
@@ -4330,10 +4266,10 @@
         <v>27</v>
       </c>
       <c r="D103" t="s" s="812">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s" s="813">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s" s="814">
         <v>27</v>
@@ -4356,10 +4292,10 @@
         <v>27</v>
       </c>
       <c r="D104" t="s" s="820">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s" s="821">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s" s="822">
         <v>27</v>
@@ -4382,10 +4318,10 @@
         <v>27</v>
       </c>
       <c r="D105" t="s" s="828">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s" s="829">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s" s="830">
         <v>27</v>
@@ -4408,10 +4344,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s" s="836">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s" s="837">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s" s="838">
         <v>27</v>
@@ -4434,10 +4370,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s" s="844">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s" s="845">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s" s="846">
         <v>27</v>
@@ -4451,28 +4387,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="849">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s" s="850">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s" s="851">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s" s="852">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s" s="853">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F108" t="s" s="854">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s" s="855">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H108" t="s" s="856">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -4483,22 +4419,22 @@
         <v>9</v>
       </c>
       <c r="C109" t="s" s="859">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s" s="860">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s" s="861">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F109" t="s" s="862">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G109" t="s" s="863">
+        <v>57</v>
+      </c>
+      <c r="H109" t="s" s="864">
         <v>63</v>
-      </c>
-      <c r="H109" t="s" s="864">
-        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -4509,22 +4445,22 @@
         <v>9</v>
       </c>
       <c r="C110" t="s" s="867">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s" s="868">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s" s="869">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F110" t="s" s="870">
         <v>17</v>
       </c>
       <c r="G110" t="s" s="871">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H110" t="s" s="872">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111">
@@ -4535,22 +4471,22 @@
         <v>9</v>
       </c>
       <c r="C111" t="s" s="875">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s" s="876">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s" s="877">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s" s="878">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s" s="879">
+        <v>62</v>
+      </c>
+      <c r="H111" t="s" s="880">
         <v>63</v>
-      </c>
-      <c r="H111" t="s" s="880">
-        <v>59</v>
       </c>
     </row>
     <row r="112">
@@ -4558,25 +4494,25 @@
         <v>63</v>
       </c>
       <c r="B112" t="s" s="882">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s" s="883">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s" s="884">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s" s="885">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s" s="886">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s" s="887">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H112" t="s" s="888">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -4590,10 +4526,10 @@
         <v>27</v>
       </c>
       <c r="D113" t="s" s="892">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s" s="893">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s" s="894">
         <v>27</v>
@@ -4616,10 +4552,10 @@
         <v>27</v>
       </c>
       <c r="D114" t="s" s="900">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s" s="901">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s" s="902">
         <v>27</v>
@@ -4636,25 +4572,25 @@
         <v>63</v>
       </c>
       <c r="B115" t="s" s="906">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s" s="907">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s" s="908">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s" s="909">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s" s="910">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s" s="911">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H115" t="s" s="912">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116">
@@ -4662,25 +4598,25 @@
         <v>63</v>
       </c>
       <c r="B116" t="s" s="914">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s" s="915">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s" s="916">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s" s="917">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s" s="918">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s" s="919">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s" s="920">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
@@ -4694,10 +4630,10 @@
         <v>27</v>
       </c>
       <c r="D117" t="s" s="924">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s" s="925">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s" s="926">
         <v>27</v>
@@ -4720,10 +4656,10 @@
         <v>27</v>
       </c>
       <c r="D118" t="s" s="932">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s" s="933">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s" s="934">
         <v>27</v>
@@ -4746,10 +4682,10 @@
         <v>27</v>
       </c>
       <c r="D119" t="s" s="940">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s" s="941">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s" s="942">
         <v>27</v>
@@ -4772,10 +4708,10 @@
         <v>27</v>
       </c>
       <c r="D120" t="s" s="948">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s" s="949">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s" s="950">
         <v>27</v>
@@ -4798,10 +4734,10 @@
         <v>27</v>
       </c>
       <c r="D121" t="s" s="956">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s" s="957">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s" s="958">
         <v>27</v>
@@ -4824,10 +4760,10 @@
         <v>27</v>
       </c>
       <c r="D122" t="s" s="964">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E122" t="s" s="965">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s" s="966">
         <v>27</v>
@@ -4850,10 +4786,10 @@
         <v>27</v>
       </c>
       <c r="D123" t="s" s="972">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E123" t="s" s="973">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s" s="974">
         <v>27</v>
@@ -4876,10 +4812,10 @@
         <v>27</v>
       </c>
       <c r="D124" t="s" s="980">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s" s="981">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s" s="982">
         <v>27</v>
@@ -4902,10 +4838,10 @@
         <v>27</v>
       </c>
       <c r="D125" t="s" s="988">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E125" t="s" s="989">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F125" t="s" s="990">
         <v>27</v>
@@ -4928,10 +4864,10 @@
         <v>27</v>
       </c>
       <c r="D126" t="s" s="996">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s" s="997">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s" s="998">
         <v>27</v>
@@ -4954,10 +4890,10 @@
         <v>27</v>
       </c>
       <c r="D127" t="s" s="1004">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s" s="1005">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s" s="1006">
         <v>27</v>
@@ -4980,10 +4916,10 @@
         <v>27</v>
       </c>
       <c r="D128" t="s" s="1012">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s" s="1013">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s" s="1014">
         <v>27</v>
@@ -5006,10 +4942,10 @@
         <v>27</v>
       </c>
       <c r="D129" t="s" s="1020">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s" s="1021">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F129" t="s" s="1022">
         <v>27</v>
@@ -5032,10 +4968,10 @@
         <v>27</v>
       </c>
       <c r="D130" t="s" s="1028">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s" s="1029">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F130" t="s" s="1030">
         <v>27</v>
@@ -5049,28 +4985,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1033">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s" s="1034">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s" s="1035">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s" s="1036">
         <v>11</v>
       </c>
       <c r="E131" t="s" s="1037">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s" s="1038">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s" s="1039">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H131" t="s" s="1040">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132">
@@ -5081,22 +5017,22 @@
         <v>9</v>
       </c>
       <c r="C132" t="s" s="1043">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s" s="1044">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s" s="1045">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s" s="1046">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s" s="1047">
         <v>59</v>
       </c>
       <c r="H132" t="s" s="1048">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133">
@@ -5107,22 +5043,22 @@
         <v>9</v>
       </c>
       <c r="C133" t="s" s="1051">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s" s="1052">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s" s="1053">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F133" t="s" s="1054">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s" s="1055">
+        <v>63</v>
+      </c>
+      <c r="H133" t="s" s="1056">
         <v>59</v>
-      </c>
-      <c r="H133" t="s" s="1056">
-        <v>62</v>
       </c>
     </row>
     <row r="134">
@@ -5133,74 +5069,74 @@
         <v>9</v>
       </c>
       <c r="C134" t="s" s="1059">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s" s="1060">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E134" t="s" s="1061">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F134" t="s" s="1062">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s" s="1063">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H134" t="s" s="1064">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="1065">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B135" t="s" s="1066">
         <v>9</v>
       </c>
       <c r="C135" t="s" s="1067">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s" s="1068">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E135" t="s" s="1069">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F135" t="s" s="1070">
         <v>13</v>
       </c>
       <c r="G135" t="s" s="1071">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H135" t="s" s="1072">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="1073">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B136" t="s" s="1074">
         <v>9</v>
       </c>
       <c r="C136" t="s" s="1075">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s" s="1076">
         <v>31</v>
       </c>
       <c r="E136" t="s" s="1077">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F136" t="s" s="1078">
         <v>17</v>
       </c>
       <c r="G136" t="s" s="1079">
+        <v>55</v>
+      </c>
+      <c r="H136" t="s" s="1080">
         <v>52</v>
-      </c>
-      <c r="H136" t="s" s="1080">
-        <v>59</v>
       </c>
     </row>
     <row r="137">
@@ -5211,19 +5147,19 @@
         <v>9</v>
       </c>
       <c r="C137" t="s" s="1083">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s" s="1084">
         <v>28</v>
       </c>
       <c r="E137" t="s" s="1085">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F137" t="s" s="1086">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s" s="1087">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H137" t="s" s="1088">
         <v>55</v>
@@ -5237,45 +5173,45 @@
         <v>9</v>
       </c>
       <c r="C138" t="s" s="1091">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s" s="1092">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s" s="1093">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s" s="1094">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s" s="1095">
         <v>55</v>
       </c>
       <c r="H138" t="s" s="1096">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1097">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s" s="1098">
         <v>9</v>
       </c>
       <c r="C139" t="s" s="1099">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s" s="1100">
         <v>28</v>
       </c>
       <c r="E139" t="s" s="1101">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F139" t="s" s="1102">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s" s="1103">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H139" t="s" s="1104">
         <v>55</v>
@@ -5283,54 +5219,54 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="1105">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s" s="1106">
         <v>9</v>
       </c>
       <c r="C140" t="s" s="1107">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s" s="1108">
         <v>11</v>
       </c>
       <c r="E140" t="s" s="1109">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s" s="1110">
         <v>13</v>
       </c>
       <c r="G140" t="s" s="1111">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H140" t="s" s="1112">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1113">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s" s="1114">
         <v>9</v>
       </c>
       <c r="C141" t="s" s="1115">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s" s="1116">
         <v>31</v>
       </c>
       <c r="E141" t="s" s="1117">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s" s="1118">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G141" t="s" s="1119">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H141" t="s" s="1120">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
@@ -5341,131 +5277,131 @@
         <v>9</v>
       </c>
       <c r="C142" t="s" s="1123">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s" s="1124">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E142" t="s" s="1125">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s" s="1126">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G142" t="s" s="1127">
+        <v>57</v>
+      </c>
+      <c r="H142" t="s" s="1128">
         <v>60</v>
-      </c>
-      <c r="H142" t="s" s="1128">
-        <v>55</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="1129">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s" s="1130">
         <v>9</v>
       </c>
       <c r="C143" t="s" s="1131">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s" s="1132">
         <v>11</v>
       </c>
       <c r="E143" t="s" s="1133">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s" s="1134">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G143" t="s" s="1135">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H143" t="s" s="1136">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1137">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B144" t="s" s="1138">
         <v>9</v>
       </c>
       <c r="C144" t="s" s="1139">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s" s="1140">
         <v>31</v>
       </c>
       <c r="E144" t="s" s="1141">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F144" t="s" s="1142">
         <v>56</v>
       </c>
       <c r="G144" t="s" s="1143">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s" s="1144">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="1145">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B145" t="s" s="1146">
         <v>9</v>
       </c>
       <c r="C145" t="s" s="1147">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s" s="1148">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s" s="1149">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F145" t="s" s="1150">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s" s="1151">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H145" t="s" s="1152">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="1153">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B146" t="s" s="1154">
         <v>9</v>
       </c>
       <c r="C146" t="s" s="1155">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s" s="1156">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s" s="1157">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s" s="1158">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G146" t="s" s="1159">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H146" t="s" s="1160">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1161">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s" s="1162">
         <v>9</v>
@@ -5474,24 +5410,24 @@
         <v>10</v>
       </c>
       <c r="D147" t="s" s="1164">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s" s="1165">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F147" t="s" s="1166">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s" s="1167">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H147" t="s" s="1168">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="1169">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s" s="1170">
         <v>9</v>
@@ -5500,24 +5436,24 @@
         <v>15</v>
       </c>
       <c r="D148" t="s" s="1172">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s" s="1173">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s" s="1174">
         <v>56</v>
       </c>
       <c r="G148" t="s" s="1175">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H148" t="s" s="1176">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1177">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s" s="1178">
         <v>9</v>
@@ -5526,24 +5462,24 @@
         <v>19</v>
       </c>
       <c r="D149" t="s" s="1180">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s" s="1181">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F149" t="s" s="1182">
         <v>13</v>
       </c>
       <c r="G149" t="s" s="1183">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H149" t="s" s="1184">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="1185">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s" s="1186">
         <v>9</v>
@@ -5552,328 +5488,328 @@
         <v>22</v>
       </c>
       <c r="D150" t="s" s="1188">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E150" t="s" s="1189">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s" s="1190">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s" s="1191">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H150" t="s" s="1192">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1193">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B151" t="s" s="1194">
         <v>9</v>
       </c>
       <c r="C151" t="s" s="1195">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s" s="1196">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E151" t="s" s="1197">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F151" t="s" s="1198">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G151" t="s" s="1199">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H151" t="s" s="1200">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="1201">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s" s="1202">
         <v>9</v>
       </c>
       <c r="C152" t="s" s="1203">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s" s="1204">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E152" t="s" s="1205">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F152" t="s" s="1206">
         <v>13</v>
       </c>
       <c r="G152" t="s" s="1207">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H152" t="s" s="1208">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="1209">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s" s="1210">
         <v>9</v>
       </c>
       <c r="C153" t="s" s="1211">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s" s="1212">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E153" t="s" s="1213">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F153" t="s" s="1214">
         <v>56</v>
       </c>
       <c r="G153" t="s" s="1215">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H153" t="s" s="1216">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="1217">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s" s="1218">
         <v>9</v>
       </c>
       <c r="C154" t="s" s="1219">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s" s="1220">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E154" t="s" s="1221">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F154" t="s" s="1222">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G154" t="s" s="1223">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H154" t="s" s="1224">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="1225">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s" s="1226">
         <v>9</v>
       </c>
       <c r="C155" t="s" s="1227">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D155" t="s" s="1228">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E155" t="s" s="1229">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s" s="1230">
         <v>13</v>
       </c>
       <c r="G155" t="s" s="1231">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H155" t="s" s="1232">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="1233">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B156" t="s" s="1234">
         <v>9</v>
       </c>
       <c r="C156" t="s" s="1235">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s" s="1236">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E156" t="s" s="1237">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F156" t="s" s="1238">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s" s="1239">
+        <v>70</v>
+      </c>
+      <c r="H156" t="s" s="1240">
         <v>18</v>
-      </c>
-      <c r="H156" t="s" s="1240">
-        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="1241">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B157" t="s" s="1242">
         <v>9</v>
       </c>
       <c r="C157" t="s" s="1243">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s" s="1244">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s" s="1245">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s" s="1246">
         <v>17</v>
       </c>
       <c r="G157" t="s" s="1247">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s" s="1248">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="1249">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B158" t="s" s="1250">
         <v>9</v>
       </c>
       <c r="C158" t="s" s="1251">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s" s="1252">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s" s="1253">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F158" t="s" s="1254">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G158" t="s" s="1255">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s" s="1256">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="1257">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B159" t="s" s="1258">
         <v>9</v>
       </c>
       <c r="C159" t="s" s="1259">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s" s="1260">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s" s="1261">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s" s="1262">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s" s="1263">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H159" t="s" s="1264">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="1265">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s" s="1266">
         <v>9</v>
       </c>
       <c r="C160" t="s" s="1267">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s" s="1268">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s" s="1269">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s" s="1270">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s" s="1271">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s" s="1272">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="1273">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s" s="1274">
         <v>9</v>
       </c>
       <c r="C161" t="s" s="1275">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D161" t="s" s="1276">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s" s="1277">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F161" t="s" s="1278">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G161" t="s" s="1279">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H161" t="s" s="1280">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="1281">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s" s="1282">
         <v>9</v>
       </c>
       <c r="C162" t="s" s="1283">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s" s="1284">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E162" t="s" s="1285">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F162" t="s" s="1286">
         <v>17</v>
       </c>
       <c r="G162" t="s" s="1287">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s" s="1288">
         <v>18</v>
@@ -5881,240 +5817,32 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="1289">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s" s="1290">
         <v>9</v>
       </c>
       <c r="C163" t="s" s="1291">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s" s="1292">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E163" t="s" s="1293">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s" s="1294">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s" s="1295">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H163" t="s" s="1296">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="1297">
-        <v>18</v>
-      </c>
-      <c r="B164" t="s" s="1298">
-        <v>9</v>
-      </c>
-      <c r="C164" t="s" s="1299">
-        <v>19</v>
-      </c>
-      <c r="D164" t="s" s="1300">
-        <v>31</v>
-      </c>
-      <c r="E164" t="s" s="1301">
-        <v>61</v>
-      </c>
-      <c r="F164" t="s" s="1302">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s" s="1303">
         <v>14</v>
       </c>
-      <c r="H164" t="s" s="1304">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="1305">
-        <v>18</v>
-      </c>
-      <c r="B165" t="s" s="1306">
-        <v>9</v>
-      </c>
-      <c r="C165" t="s" s="1307">
-        <v>22</v>
-      </c>
-      <c r="D165" t="s" s="1308">
-        <v>11</v>
-      </c>
-      <c r="E165" t="s" s="1309">
-        <v>33</v>
-      </c>
-      <c r="F165" t="s" s="1310">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s" s="1311">
-        <v>55</v>
-      </c>
-      <c r="H165" t="s" s="1312">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="1313">
-        <v>18</v>
-      </c>
-      <c r="B166" t="s" s="1314">
-        <v>9</v>
-      </c>
-      <c r="C166" t="s" s="1315">
-        <v>34</v>
-      </c>
-      <c r="D166" t="s" s="1316">
-        <v>31</v>
-      </c>
-      <c r="E166" t="s" s="1317">
-        <v>38</v>
-      </c>
-      <c r="F166" t="s" s="1318">
-        <v>56</v>
-      </c>
-      <c r="G166" t="s" s="1319">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s" s="1320">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="1321">
-        <v>14</v>
-      </c>
-      <c r="B167" t="s" s="1322">
-        <v>9</v>
-      </c>
-      <c r="C167" t="s" s="1323">
-        <v>10</v>
-      </c>
-      <c r="D167" t="s" s="1324">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s" s="1325">
-        <v>12</v>
-      </c>
-      <c r="F167" t="s" s="1326">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s" s="1327">
-        <v>14</v>
-      </c>
-      <c r="H167" t="s" s="1328">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="1329">
-        <v>14</v>
-      </c>
-      <c r="B168" t="s" s="1330">
-        <v>9</v>
-      </c>
-      <c r="C168" t="s" s="1331">
-        <v>15</v>
-      </c>
-      <c r="D168" t="s" s="1332">
-        <v>31</v>
-      </c>
-      <c r="E168" t="s" s="1333">
-        <v>54</v>
-      </c>
-      <c r="F168" t="s" s="1334">
-        <v>56</v>
-      </c>
-      <c r="G168" t="s" s="1335">
-        <v>25</v>
-      </c>
-      <c r="H168" t="s" s="1336">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="1337">
-        <v>14</v>
-      </c>
-      <c r="B169" t="s" s="1338">
-        <v>9</v>
-      </c>
-      <c r="C169" t="s" s="1339">
-        <v>19</v>
-      </c>
-      <c r="D169" t="s" s="1340">
-        <v>31</v>
-      </c>
-      <c r="E169" t="s" s="1341">
-        <v>61</v>
-      </c>
-      <c r="F169" t="s" s="1342">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s" s="1343">
-        <v>14</v>
-      </c>
-      <c r="H169" t="s" s="1344">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="1345">
-        <v>14</v>
-      </c>
-      <c r="B170" t="s" s="1346">
-        <v>9</v>
-      </c>
-      <c r="C170" t="s" s="1347">
-        <v>22</v>
-      </c>
-      <c r="D170" t="s" s="1348">
-        <v>31</v>
-      </c>
-      <c r="E170" t="s" s="1349">
-        <v>32</v>
-      </c>
-      <c r="F170" t="s" s="1350">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s" s="1351">
-        <v>21</v>
-      </c>
-      <c r="H170" t="s" s="1352">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="1353">
-        <v>14</v>
-      </c>
-      <c r="B171" t="s" s="1354">
-        <v>9</v>
-      </c>
-      <c r="C171" t="s" s="1355">
-        <v>34</v>
-      </c>
-      <c r="D171" t="s" s="1356">
-        <v>31</v>
-      </c>
-      <c r="E171" t="s" s="1357">
-        <v>38</v>
-      </c>
-      <c r="F171" t="s" s="1358">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s" s="1359">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s" s="1360">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H170"/>
+  <autoFilter ref="A1:H163"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>